--- a/blackbird_engine/core/books/m20_1.xlsx
+++ b/blackbird_engine/core/books/m20_1.xlsx
@@ -1250,10 +1250,10 @@
   <dimension ref="A3:AO112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12199,10 +12199,10 @@
   <dimension ref="A3:AO77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19024,7 +19024,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25843,7 +25843,7 @@
   <dimension ref="A3:AO77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
@@ -39490,7 +39490,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
